--- a/prediction_data/predict_history.xlsx
+++ b/prediction_data/predict_history.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Other_exp\Jupyter\orie4741-fp\prediction_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AAEDB6-95D7-44F6-A5A3-5AA3A90302EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38580" yWindow="3324" windowWidth="26412" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,245 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>HomeTeam</t>
+  </si>
+  <si>
+    <t>AwayTeam</t>
+  </si>
+  <si>
+    <t>B365H</t>
+  </si>
+  <si>
+    <t>B365D</t>
+  </si>
+  <si>
+    <t>B365A</t>
+  </si>
+  <si>
+    <t>AHh</t>
+  </si>
+  <si>
+    <t>B365AHH</t>
+  </si>
+  <si>
+    <t>B365AHA</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>MLP_new</t>
+  </si>
+  <si>
+    <t>Rand_SVM</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>truth_balance</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>马洛卡</t>
+  </si>
+  <si>
+    <t>贝蒂斯</t>
+  </si>
+  <si>
+    <t>平手/半球</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>科莫</t>
+  </si>
+  <si>
+    <t>亚特兰大</t>
+  </si>
+  <si>
+    <t>受半球</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>奥格斯堡</t>
+  </si>
+  <si>
+    <t>海登海姆</t>
+  </si>
+  <si>
+    <t>半球</t>
+  </si>
+  <si>
+    <t>2;1</t>
+  </si>
+  <si>
+    <t>多特蒙德</t>
+  </si>
+  <si>
+    <t>不来梅</t>
+  </si>
+  <si>
+    <t>一球</t>
+  </si>
+  <si>
+    <t>弗赖堡</t>
+  </si>
+  <si>
+    <t>拜仁</t>
+  </si>
+  <si>
+    <t>受球半</t>
+  </si>
+  <si>
+    <t>1;0</t>
+  </si>
+  <si>
+    <t>莱红牛</t>
+  </si>
+  <si>
+    <t>勒沃库森</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>狼队</t>
+  </si>
+  <si>
+    <t>阿森纳</t>
+  </si>
+  <si>
+    <t>受一球/球半</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>利物浦</t>
+  </si>
+  <si>
+    <t>伊普斯</t>
+  </si>
+  <si>
+    <t>两球半</t>
+  </si>
+  <si>
+    <t>南安普敦</t>
+  </si>
+  <si>
+    <t>纽卡斯尔</t>
+  </si>
+  <si>
+    <t>布赖顿</t>
+  </si>
+  <si>
+    <t>埃弗顿</t>
+  </si>
+  <si>
+    <t>半球/一球</t>
+  </si>
+  <si>
+    <t>伯恩茅斯</t>
+  </si>
+  <si>
+    <t>诺丁汉</t>
+  </si>
+  <si>
+    <t>马竞</t>
+  </si>
+  <si>
+    <t>比利亚雷</t>
+  </si>
+  <si>
+    <t>那不勒斯</t>
+  </si>
+  <si>
+    <t>尤文图斯</t>
+  </si>
+  <si>
+    <t>曼城</t>
+  </si>
+  <si>
+    <t>切尔西</t>
+  </si>
+  <si>
+    <t>巴利亚多</t>
+  </si>
+  <si>
+    <t>皇马</t>
+  </si>
+  <si>
+    <t>受球半/两球</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>巴黎圣曼</t>
+  </si>
+  <si>
+    <t>兰斯</t>
+  </si>
+  <si>
+    <t>球半/两球</t>
+  </si>
+  <si>
+    <t>拉帕马斯</t>
+  </si>
+  <si>
+    <t>奥萨苏纳</t>
+  </si>
+  <si>
+    <t>1：0 以上</t>
+  </si>
+  <si>
+    <t>美因茨</t>
+  </si>
+  <si>
+    <t>斯图加特</t>
+  </si>
+  <si>
+    <t>平手</t>
+  </si>
+  <si>
+    <t>1：0以上</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +286,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +573,1311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
+        <v>-2</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1">
+        <v>-2</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45681</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45682</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
+        <v>2</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prediction_data/predict_history.xlsx
+++ b/prediction_data/predict_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Other_exp\Jupyter\orie4741-fp\prediction_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AAEDB6-95D7-44F6-A5A3-5AA3A90302EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF9184-2728-4296-A616-3495BA5E8CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38580" yWindow="3324" windowWidth="26412" windowHeight="13860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32856" yWindow="5688" windowWidth="26412" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="227">
   <si>
     <t>Div</t>
   </si>
@@ -244,13 +244,1760 @@
   </si>
   <si>
     <t>1：0以上</t>
+  </si>
+  <si>
+    <t>AHCh</t>
+  </si>
+  <si>
+    <t>B365CAHH</t>
+  </si>
+  <si>
+    <t>B365CAHA</t>
+  </si>
+  <si>
+    <t>HomeTeamELO</t>
+  </si>
+  <si>
+    <t>AwayTeamELO</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Tottenham</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>负</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜平</t>
+  </si>
+  <si>
+    <t>非联赛</t>
+  </si>
+  <si>
+    <t>巴萨</t>
+  </si>
+  <si>
+    <t>巴伦西亚</t>
+  </si>
+  <si>
+    <t>胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜</t>
+  </si>
+  <si>
+    <t>热刺</t>
+  </si>
+  <si>
+    <t>负</t>
+  </si>
+  <si>
+    <t>皇家社会</t>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜仁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不来梅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科莫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤文图斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱切斯特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非联赛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴黎圣曼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩纳哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>马竞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2, 0]</t>
+  </si>
+  <si>
+    <t>切尔西</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布赖顿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 2]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>比利亚雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉帕马斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法兰克福</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门兴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 1]</t>
+  </si>
+  <si>
+    <t>朗斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫罗纳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕尔巴鄂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯恩利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>南安普敦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2, 1]</t>
+  </si>
+  <si>
+    <t>伯恩茅斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃弗顿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯图加特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多特蒙德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥格斯堡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美因茨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒沃库森</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃夫斯堡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚特兰大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维罗纳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝蒂斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞尔塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米尔沃尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利兹联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2812</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2917</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4271</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>马赛</t>
+  </si>
+  <si>
+    <t>昂热</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3944</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2956</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>乌迪内斯</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2255</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4543</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>维拉</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3914</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3114</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2972</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>西班牙人</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3971</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2418</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>圣保利</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4911</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2568</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>波鸿</t>
+  </si>
+  <si>
+    <t>基尔</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5784</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2187</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2029</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>帕尔马</t>
+  </si>
+  <si>
+    <t>卡利亚里</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5972</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1734</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2294</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>蒙扎</t>
+  </si>
+  <si>
+    <t>拉齐奥</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4819</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2889</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2292</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>赫塔费</t>
+  </si>
+  <si>
+    <t>阿拉维斯</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2366</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2925</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4710</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>布莱克本</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2986</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2417</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4597</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>罗马</t>
+  </si>
+  <si>
+    <t>威尼斯</t>
+  </si>
+  <si>
+    <t>非联赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3794</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2698</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3509</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4129</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2934</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2937</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3471</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2146</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4383</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2980</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5955</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2032</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.7503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1543</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0954</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.6175</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2041</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1784</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5656</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1970</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2374</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4994</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2865</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2141</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2519</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2822</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4659</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2939</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2276</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4785</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>国际米兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛罗伦萨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马洛卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥萨苏纳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,13 +2012,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF080808"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF1750EB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,12 +2064,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -574,15 +2361,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="U89" sqref="U89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -632,16 +2423,14 @@
         <v>13</v>
       </c>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -695,10 +2484,8 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -756,16 +2543,14 @@
         <v>2</v>
       </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1">
+      <c r="V3" s="1">
         <v>1</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="W3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -825,16 +2610,14 @@
         <v>0</v>
       </c>
       <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1">
+      <c r="V4" s="1">
         <v>-1</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="W4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -894,16 +2677,14 @@
         <v>0</v>
       </c>
       <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1">
+      <c r="V5" s="1">
         <v>-1</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="W5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -963,16 +2744,14 @@
         <v>0</v>
       </c>
       <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V6" s="1">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1032,16 +2811,14 @@
         <v>2</v>
       </c>
       <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1">
+      <c r="V7" s="1">
         <v>1</v>
       </c>
-      <c r="Y7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1101,16 +2878,14 @@
         <v>0</v>
       </c>
       <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1">
+      <c r="V8" s="1">
         <v>1</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="W8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1170,16 +2945,14 @@
         <v>0</v>
       </c>
       <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1">
+      <c r="V9" s="1">
         <v>-2</v>
       </c>
-      <c r="Y9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1239,16 +3012,14 @@
         <v>0</v>
       </c>
       <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1">
+      <c r="V10" s="1">
         <v>1</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="W10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1308,16 +3079,14 @@
         <v>2</v>
       </c>
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1">
+      <c r="V11" s="1">
         <v>-1</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="W11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1377,16 +3146,14 @@
         <v>2</v>
       </c>
       <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1">
+      <c r="V12" s="1">
         <v>-1</v>
       </c>
-      <c r="Y12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1446,16 +3213,14 @@
         <v>2</v>
       </c>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1">
+      <c r="V13" s="1">
         <v>-1</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="W13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1515,16 +3280,14 @@
         <v>2</v>
       </c>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1">
+      <c r="V14" s="1">
         <v>-1</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="W14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1584,16 +3347,14 @@
         <v>2</v>
       </c>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1">
+      <c r="V15" s="1">
         <v>-1</v>
       </c>
-      <c r="Y15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="W15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1653,16 +3414,14 @@
         <v>2</v>
       </c>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="1">
+      <c r="V16" s="1">
+        <v>2</v>
+      </c>
+      <c r="W16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1722,16 +3481,14 @@
         <v>2</v>
       </c>
       <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1">
+      <c r="V17" s="1">
         <v>-2</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="W17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1790,7 +3547,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1849,7 +3606,7 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1876,6 +3633,3045 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1">
+        <v>38460</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1539.3477783200001</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1502.7480468799999</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1">
+        <v>38461</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1990.5500488299999</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1947.5286865200001</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1">
+        <v>38462</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-2.25</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-2.25</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1895.4824218799999</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1625.3923339800001</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1">
+        <v>38463</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1664.2795410199999</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1788.0046386700001</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="1">
+        <v>38464</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1752.4016113299999</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1775.76330566</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="1">
+        <v>38465</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1727.5616455100001</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1663.6242675799999</v>
+      </c>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="1">
+        <v>38466</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H28" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="J28" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1766.5102539100001</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1681.2844238299999</v>
+      </c>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="1">
+        <v>38467</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="J29" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1835.2993164100001</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1631.9106445299999</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="1">
+        <v>38468</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>11</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-2.25</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1899.17370605</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1610.05285645</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="1">
+        <v>38469</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H31" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1773.3853759799999</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1769.53637695</v>
+      </c>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="1">
+        <v>38470</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J32" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="N32" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1753.7729492200001</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1728.4161377</v>
+      </c>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>38471</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1810.9132080100001</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1992.1595459</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>38472</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1655.6020507799999</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1709.67675781</v>
+      </c>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>38473</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1623.5700683600001</v>
+      </c>
+      <c r="P35" s="1">
+        <v>1559.8560791</v>
+      </c>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>38474</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1633.0939941399999</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1653.01794434</v>
+      </c>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>38475</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1775.7407226600001</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1863.9641113299999</v>
+      </c>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>38476</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1651.32263184</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1679.1940918</v>
+      </c>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>38477</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45690</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="K39" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L39" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1618.51623535</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1643.8432617200001</v>
+      </c>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>38478</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45691</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="N40" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1613.2453613299999</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1792.0163574200001</v>
+      </c>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>38479</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45691</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G41" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H41" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="L41" s="1">
+        <v>-1.75</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1857.3137207</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1727.70043945</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>38480</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45691</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="K42" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1697.19689941</v>
+      </c>
+      <c r="P42" s="1">
+        <v>1601.4938964800001</v>
+      </c>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="45" spans="1:21" s="1" customFormat="1">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45694</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="K45" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L45" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T45" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="1" customFormat="1">
+      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45694</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>11</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="L46" s="1">
+        <v>-2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R46" s="1">
+        <v>-2</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T46" s="1">
+        <v>-2</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="1" customFormat="1">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45694</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="1">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="K47" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="N47" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R47" s="1">
+        <v>2</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="1" customFormat="1">
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="1" customFormat="1">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45695</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G50" s="1">
+        <v>11</v>
+      </c>
+      <c r="H50" s="1">
+        <v>21</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-2.75</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="1" customFormat="1">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45695</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="K51" s="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" s="1" customFormat="1">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45695</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="G52" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H52" s="1">
+        <v>7</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" s="1" customFormat="1">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45695</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H53" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K53" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" s="1" customFormat="1">
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="B56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56">
+        <v>1.42</v>
+      </c>
+      <c r="G56">
+        <v>4.33</v>
+      </c>
+      <c r="H56">
+        <v>7.5</v>
+      </c>
+      <c r="I56">
+        <v>-1.25</v>
+      </c>
+      <c r="J56">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K56">
+        <v>1.83</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="B57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57">
+        <v>2.25</v>
+      </c>
+      <c r="G57">
+        <v>3.3</v>
+      </c>
+      <c r="H57">
+        <v>3.3</v>
+      </c>
+      <c r="I57">
+        <v>-0.25</v>
+      </c>
+      <c r="J57">
+        <v>1.95</v>
+      </c>
+      <c r="K57">
+        <v>1.98</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U57" s="1"/>
+      <c r="W57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1">
+        <v>1</v>
+      </c>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="B59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59">
+        <v>4.5</v>
+      </c>
+      <c r="G59">
+        <v>3.7</v>
+      </c>
+      <c r="H59">
+        <v>1.75</v>
+      </c>
+      <c r="I59">
+        <v>0.75</v>
+      </c>
+      <c r="J59">
+        <v>1.9</v>
+      </c>
+      <c r="K59">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1">
+        <v>1</v>
+      </c>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U59" s="1"/>
+      <c r="W59" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="B60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60">
+        <v>1.75</v>
+      </c>
+      <c r="G60">
+        <v>3.6</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>-0.75</v>
+      </c>
+      <c r="J60">
+        <v>2.06</v>
+      </c>
+      <c r="K60">
+        <v>1.87</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U60" s="1"/>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="B61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61">
+        <v>1.9</v>
+      </c>
+      <c r="G61">
+        <v>3.9</v>
+      </c>
+      <c r="H61">
+        <v>3.7</v>
+      </c>
+      <c r="I61">
+        <v>-0.5</v>
+      </c>
+      <c r="J61">
+        <v>1.98</v>
+      </c>
+      <c r="K61">
+        <v>1.95</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U61" s="1"/>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F62">
+        <v>3.2</v>
+      </c>
+      <c r="G62">
+        <v>3.4</v>
+      </c>
+      <c r="H62">
+        <v>2.25</v>
+      </c>
+      <c r="I62">
+        <v>0.25</v>
+      </c>
+      <c r="J62">
+        <v>1.89</v>
+      </c>
+      <c r="K62">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1">
+        <v>1</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U62" s="1"/>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="B63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63">
+        <v>1.75</v>
+      </c>
+      <c r="G63">
+        <v>3.75</v>
+      </c>
+      <c r="H63">
+        <v>4.5</v>
+      </c>
+      <c r="I63">
+        <v>-0.75</v>
+      </c>
+      <c r="J63">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K63">
+        <v>1.83</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U63" s="1"/>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="B64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F64">
+        <v>1.73</v>
+      </c>
+      <c r="G64">
+        <v>3.6</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>-0.75</v>
+      </c>
+      <c r="J64">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K64">
+        <v>1.92</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U64" s="1"/>
+      <c r="W64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="B65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G65">
+        <v>3.4</v>
+      </c>
+      <c r="H65">
+        <v>3.1</v>
+      </c>
+      <c r="I65">
+        <v>-0.25</v>
+      </c>
+      <c r="J65">
+        <v>2.02</v>
+      </c>
+      <c r="K65">
+        <v>1.91</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U65" s="1"/>
+      <c r="W65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="B66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G66">
+        <v>3.5</v>
+      </c>
+      <c r="H66">
+        <v>2.63</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1.9</v>
+      </c>
+      <c r="K66">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1">
+        <v>1</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U66" s="1"/>
+      <c r="W66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="B67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>3.9</v>
+      </c>
+      <c r="H67">
+        <v>1.65</v>
+      </c>
+      <c r="I67">
+        <v>0.75</v>
+      </c>
+      <c r="J67">
+        <v>2.09</v>
+      </c>
+      <c r="K67">
+        <v>1.84</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1">
+        <v>1</v>
+      </c>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U67" s="1"/>
+      <c r="W67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="B68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68">
+        <v>2.9</v>
+      </c>
+      <c r="G68">
+        <v>3.6</v>
+      </c>
+      <c r="H68">
+        <v>2.35</v>
+      </c>
+      <c r="I68">
+        <v>0.25</v>
+      </c>
+      <c r="J68">
+        <v>1.83</v>
+      </c>
+      <c r="K68">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1">
+        <v>1</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U68" s="1"/>
+      <c r="W68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
+      <c r="B69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45696</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69">
+        <v>1.85</v>
+      </c>
+      <c r="G69">
+        <v>3.75</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+      <c r="I69">
+        <v>-0.5</v>
+      </c>
+      <c r="J69">
+        <v>1.92</v>
+      </c>
+      <c r="K69">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U69" s="1"/>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="G72" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1">
+        <v>1</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="X72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
+      <c r="A73" s="1">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="J73" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1">
+        <v>1</v>
+      </c>
+      <c r="R73" t="s">
+        <v>207</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="X73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
+      <c r="A74" s="1">
+        <v>2</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H74" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="X74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
+      <c r="A75" s="1">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="G75" s="1">
+        <v>5</v>
+      </c>
+      <c r="H75" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="J75" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="K75" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W75" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="X75" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
+      <c r="A76" s="1">
+        <v>4</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H76" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I76" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J76" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="K76" s="1">
+        <v>2</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="X76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
+      <c r="A77" s="1">
+        <v>5</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="G77" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H77" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="I77" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="W77" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="X77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" s="1">
+        <v>6</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H78" s="1">
+        <v>5</v>
+      </c>
+      <c r="I78" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="J78" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="K78" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="X78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
+      <c r="A79" s="1">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J79" s="1">
+        <v>2</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W79" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="X79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
+      <c r="A80" s="1">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="J80" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="K80" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R80" t="s">
+        <v>207</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W80" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="X80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
+      <c r="A81" s="1">
+        <v>9</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="G81" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H81" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="K81" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W81" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="X81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
+      <c r="A82" s="1">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45697</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F82" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H82" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="K82" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1">
+        <v>1</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W82" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="X82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
+      <c r="T83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" s="1" customFormat="1">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45698</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="H84" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="I84" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="J84" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="R84" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" s="1" customFormat="1">
+      <c r="A85" s="1">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45698</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3</v>
+      </c>
+      <c r="H85" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="K85" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="R85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="V85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X85" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prediction_data/predict_history.xlsx
+++ b/prediction_data/predict_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Other_exp\Jupyter\orie4741-fp\prediction_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF9184-2728-4296-A616-3495BA5E8CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864230C-508E-465A-BD99-F40299F374B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32856" yWindow="5688" windowWidth="26412" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31500" yWindow="2136" windowWidth="29004" windowHeight="14088" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="334">
   <si>
     <t>Div</t>
   </si>
@@ -1991,13 +1991,3499 @@
   <si>
     <t>model1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.6808</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2221</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0971</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5850</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2062</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5775</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2061</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2164</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5718</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2149</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>图卢兹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2077</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2714</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5209</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4060</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2807</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3132</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2517</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3273</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2687</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3280</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>南特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5170</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2739</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2092</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1984</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5874</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2070</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1948</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5982</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2196</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1886</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5918</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2671</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2839</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4490</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3739</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2769</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3492</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3513</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2845</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3642</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3238</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2821</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3941</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>那不勒斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉齐奥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.6992</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0868</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5075</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2510</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2415</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5053</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2452</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2495</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4519</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2697</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2784</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2550</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2831</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4619</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5649</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1972</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5438</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2395</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2167</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2460</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2137</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>布伦特</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西汉姆联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3372</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2911</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3717</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5660</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1722</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2617</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5704</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2596</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5348</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1768</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2885</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>纽卡斯尔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.6727</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2252</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4685</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1868</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3447</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4125</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1903</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3972</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3427</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1845</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4729</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1616</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2540</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5844</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5805</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2124</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2071</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5569</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2273</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2158</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5151</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2682</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2168</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>诺丁汉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富勒姆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5269</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2715</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2974</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3180</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2066</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4754</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3134</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4841</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>波鸿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2283</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.6597</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3556</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3156</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3288</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3477</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3072</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3451</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3218</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3622</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>柏林联合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2733</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5126</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5354</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2534</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5189</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2114</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2697</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5292</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2052</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2657</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>卡利亚里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5441</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2679</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1879</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2241</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.3031</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4728</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2880</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.4814</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1733</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2875</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5392</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>阿拉维斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱加内斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.7481</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1904</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0615</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5704</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2042</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5757</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1608</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF1750EB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.6148</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF080808"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>阿森纳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model2</t>
+  </si>
+  <si>
+    <t>model3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>model_FTR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实值</t>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥格斯堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱红牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博洛尼亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布雷斯特</t>
+  </si>
+  <si>
+    <t>FTR</t>
+  </si>
+  <si>
+    <t>balance_val</t>
+  </si>
+  <si>
+    <t>easy_label</t>
+  </si>
+  <si>
+    <t>model0</t>
+  </si>
+  <si>
+    <t>model0_val</t>
+  </si>
+  <si>
+    <t>model1</t>
+  </si>
+  <si>
+    <t>model1_val</t>
+  </si>
+  <si>
+    <t>predict1</t>
+  </si>
+  <si>
+    <t>predict2</t>
+  </si>
+  <si>
+    <t>predict3</t>
+  </si>
+  <si>
+    <t>model2_val</t>
+  </si>
+  <si>
+    <t>model3</t>
+  </si>
+  <si>
+    <t>model3_val</t>
+  </si>
+  <si>
+    <t>model_FTR</t>
+  </si>
+  <si>
+    <t>塞尔塔</t>
+  </si>
+  <si>
+    <t>布伦特</t>
+  </si>
+  <si>
+    <t>莱切斯特</t>
+  </si>
+  <si>
+    <t>雷恩</t>
+  </si>
+  <si>
+    <t>莱切</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2031,8 +5517,15 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2051,6 +5544,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2064,7 +5563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2079,6 +5578,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2361,15 +5866,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:AI114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="U89" sqref="U89"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6445,7 +9951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:35">
       <c r="A81" s="1">
         <v>9</v>
       </c>
@@ -6506,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:35">
       <c r="A82" s="1">
         <v>10</v>
       </c>
@@ -6567,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:35">
       <c r="T83" s="1" t="s">
         <v>226</v>
       </c>
@@ -6578,7 +10084,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:24" s="1" customFormat="1">
+    <row r="84" spans="1:35" s="1" customFormat="1">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -6625,7 +10131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:24" s="1" customFormat="1">
+    <row r="85" spans="1:35" s="1" customFormat="1">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -6670,6 +10176,1804 @@
       </c>
       <c r="X85" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:35" s="1" customFormat="1">
+      <c r="C86" s="2"/>
+      <c r="AH86" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI86" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:35" s="1" customFormat="1">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45702</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="1">
+        <v>3</v>
+      </c>
+      <c r="G87" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H87" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J87" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="K87" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AG87" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:35" s="1" customFormat="1">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45702</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H88" s="1">
+        <v>5</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="J88" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:35" s="1" customFormat="1">
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V90" s="7">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="W90" s="7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z90" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB90" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD90" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH90" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:35" s="1" customFormat="1">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F91" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G91" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="H91" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="I91" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="L91" s="1">
+        <v>10</v>
+      </c>
+      <c r="M91" s="1">
+        <v>5</v>
+      </c>
+      <c r="N91" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="T91" s="1">
+        <v>0</v>
+      </c>
+      <c r="U91" s="1">
+        <v>2</v>
+      </c>
+      <c r="X91" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:35" s="1" customFormat="1">
+      <c r="A92" s="1">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F92" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J92" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K92" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L92" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="M92" s="1">
+        <v>3</v>
+      </c>
+      <c r="N92" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T92" s="1">
+        <v>1</v>
+      </c>
+      <c r="U92" s="1">
+        <v>1</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y92" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC92" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD92" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE92" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:35" s="1" customFormat="1">
+      <c r="A93" s="1">
+        <v>2</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="G93" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H93" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="J93" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M93" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="N93" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="T93" s="1">
+        <v>1</v>
+      </c>
+      <c r="U93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y93" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA93" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC93" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD93" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE93" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:35" s="1" customFormat="1">
+      <c r="A94" s="1">
+        <v>3</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="G94" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="H94" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="I94" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="K94" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="L94" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="M94" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="N94" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="T94" s="1">
+        <v>0</v>
+      </c>
+      <c r="U94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35" s="1" customFormat="1">
+      <c r="A95" s="1">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F95" s="1">
+        <v>5</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="K95" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="L95" s="1">
+        <v>5</v>
+      </c>
+      <c r="M95" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="T95" s="1">
+        <v>2</v>
+      </c>
+      <c r="U95" s="1">
+        <v>1</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y95" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA95" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC95" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD95" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE95" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG95" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35" s="1" customFormat="1">
+      <c r="A96" s="1">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="G96" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H96" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I96" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="K96" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="L96" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="M96" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="N96" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="T96" s="1">
+        <v>2</v>
+      </c>
+      <c r="U96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y96" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC96" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD96" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE96" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" s="1" customFormat="1">
+      <c r="A97" s="1">
+        <v>6</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F97" s="1">
+        <v>6</v>
+      </c>
+      <c r="G97" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="K97" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="L97" s="1">
+        <v>6</v>
+      </c>
+      <c r="M97" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0</v>
+      </c>
+      <c r="U97" s="1">
+        <v>1</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y97" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z97" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA97" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB97" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC97" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD97" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE97" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" s="1" customFormat="1">
+      <c r="A98" s="1">
+        <v>7</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="G98" s="1">
+        <v>4</v>
+      </c>
+      <c r="H98" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I98" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="L98" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="M98" s="1">
+        <v>4</v>
+      </c>
+      <c r="N98" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="T98" s="1">
+        <v>2</v>
+      </c>
+      <c r="U98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y98" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z98" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB98" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC98" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD98" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE98" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF98" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG98" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" s="1" customFormat="1">
+      <c r="A99" s="1">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="G99" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="I99" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J99" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="K99" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="L99" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M99" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="N99" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="T99" s="1">
+        <v>0</v>
+      </c>
+      <c r="U99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y99" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA99" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC99" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD99" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE99" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF99" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" s="1" customFormat="1">
+      <c r="A100" s="1">
+        <v>9</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F100" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="G100" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="I100" s="1">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K100" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="L100" s="1">
+        <v>6</v>
+      </c>
+      <c r="M100" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="N100" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T100" s="1">
+        <v>1</v>
+      </c>
+      <c r="U100" s="1">
+        <v>1</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z100" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB100" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC100" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD100" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE100" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF100" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG100" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH100" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" s="1" customFormat="1">
+      <c r="A101" s="1">
+        <v>10</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="K101" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="L101" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="M101" s="1">
+        <v>3</v>
+      </c>
+      <c r="N101" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="T101" s="1">
+        <v>1</v>
+      </c>
+      <c r="U101" s="1">
+        <v>0</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z101" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB101" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD101" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF101" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG101" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" s="1" customFormat="1">
+      <c r="A102" s="1">
+        <v>11</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="G102" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H102" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="K102" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="L102" s="1">
+        <v>3</v>
+      </c>
+      <c r="M102" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="N102" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="T102" s="1">
+        <v>1</v>
+      </c>
+      <c r="U102" s="1">
+        <v>1</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB102" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC102" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD102" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE102" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF102" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG102" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH102" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" s="1" customFormat="1">
+      <c r="A103" s="1">
+        <v>12</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="G103" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H103" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="I103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J103" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="K103" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="L103" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="M103" s="1">
+        <v>4</v>
+      </c>
+      <c r="N103" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="T103" s="1">
+        <v>2</v>
+      </c>
+      <c r="U103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y103" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA103" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC103" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD103" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE103" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG103" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH103" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" s="1" customFormat="1">
+      <c r="A104" s="1">
+        <v>13</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45703</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="G104" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="I104" s="1">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="L104" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="M104" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="N104" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T104" s="1">
+        <v>0</v>
+      </c>
+      <c r="U104" s="1">
+        <v>1</v>
+      </c>
+      <c r="X104" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y104" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z104" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA104" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB104" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC104" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD104" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE104" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF104" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" s="1" customFormat="1">
+      <c r="B106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="U106" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="V106" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="W106" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="X106" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y106" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z106" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA106" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB106" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC106" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD106" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH106" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" s="1" customFormat="1">
+      <c r="A107" s="1">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45707</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="G107" s="1">
+        <v>4</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J107" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" s="1" customFormat="1">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45707</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="G108" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="I108" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J108" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="K108" s="1">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" s="1" customFormat="1">
+      <c r="A109" s="1">
+        <v>2</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45707</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G109" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H109" s="1">
+        <v>12</v>
+      </c>
+      <c r="I109" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J109" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="K109" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" s="1" customFormat="1">
+      <c r="A110" s="1">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45709</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G110" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="H110" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="I110" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J110" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="R110" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S110" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y110" s="1">
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="Z110" s="1">
+        <v>0.20530000000000001</v>
+      </c>
+      <c r="AA110" s="1">
+        <v>0.23380000000000001</v>
+      </c>
+      <c r="AB110" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" s="1" customFormat="1">
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45709</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2.88</v>
+      </c>
+      <c r="G111" s="1">
+        <v>3</v>
+      </c>
+      <c r="H111" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="K111" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="R111" s="1">
+        <v>0</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="1">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="Z111" s="1">
+        <v>0.2505</v>
+      </c>
+      <c r="AA111" s="1">
+        <v>0.26050000000000001</v>
+      </c>
+      <c r="AB111" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" s="1" customFormat="1">
+      <c r="A112" s="1">
+        <v>2</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45709</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="H112" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I112" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J112" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="K112" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="R112" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S112" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y112" s="1">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="Z112" s="1">
+        <v>0.2233</v>
+      </c>
+      <c r="AA112" s="1">
+        <v>0.2235</v>
+      </c>
+      <c r="AB112" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" s="1" customFormat="1">
+      <c r="A113" s="1">
+        <v>3</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45709</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F113" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="G113" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J113" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="K113" s="1">
+        <v>1.99</v>
+      </c>
+      <c r="R113" s="1">
+        <v>1</v>
+      </c>
+      <c r="S113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="1">
+        <v>0.19320000000000001</v>
+      </c>
+      <c r="Z113" s="1">
+        <v>0.28489999999999999</v>
+      </c>
+      <c r="AA113" s="1">
+        <v>0.52190000000000003</v>
+      </c>
+      <c r="AB113" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" s="1" customFormat="1">
+      <c r="A114" s="1">
+        <v>4</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45709</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G114" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="H114" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="I114" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="J114" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="K114" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="R114" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S114" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y114" s="1">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="Z114" s="1">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="AA114" s="1">
+        <v>0.24210000000000001</v>
+      </c>
+      <c r="AB114" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
